--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2929.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value2929.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.023687062219099</v>
+        <v>1.692432045936584</v>
       </c>
       <c r="B1">
-        <v>1.904426734244606</v>
+        <v>2.070842742919922</v>
       </c>
       <c r="C1">
-        <v>7.496492741926621</v>
+        <v>5.321286678314209</v>
       </c>
       <c r="D1">
-        <v>3.095316173970983</v>
+        <v>1.345447897911072</v>
       </c>
       <c r="E1">
-        <v>1.416327196701606</v>
+        <v>0.750275194644928</v>
       </c>
     </row>
   </sheetData>
